--- a/NEW HR/DONE/DELA CRUZ, CHARITO.xlsx
+++ b/NEW HR/DONE/DELA CRUZ, CHARITO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -235,6 +235,24 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>10/20,23/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>11/21-24/27,28/2023</t>
+  </si>
+  <si>
+    <t>11/29,30/2023</t>
+  </si>
+  <si>
+    <t>VL(7-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2876,7 +2894,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -2906,7 +2924,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3284,12 +3302,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A71" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87:C87"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3450,7 +3468,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>60</v>
+        <v>63.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3460,7 +3478,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>85</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4963,13 +4981,15 @@
         <v>45199</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4977,15 +4997,19 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4993,15 +5017,19 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5009,7 +5037,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5025,7 +5055,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="48" t="s">
+        <v>67</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5041,7 +5073,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45322</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5057,7 +5091,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45351</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5073,7 +5109,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45382</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5089,7 +5127,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45412</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5105,7 +5145,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45443</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5121,7 +5163,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45473</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5137,7 +5181,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45504</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5153,7 +5199,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45535</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5169,7 +5217,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45565</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5761,20 +5811,36 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5821,12 +5887,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5995,7 +6061,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>132.733</v>
+        <v>119.733</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6005,7 +6071,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>195.59800000000001</v>
+        <v>190.59800000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6262,7 +6328,9 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
@@ -6271,14 +6339,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="49">
+        <v>45197</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
@@ -6287,16 +6363,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="39">
+        <v>2</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="39">
+        <v>6</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -6306,11 +6392,15 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -6319,16 +6409,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>2</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="39">
+        <v>7</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
@@ -6341,7 +6441,9 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="48" t="s">
+        <v>67</v>
+      </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -6356,8 +6458,10 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>45292</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -6373,7 +6477,9 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="40">
+        <v>45323</v>
+      </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -6389,7 +6495,9 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="40">
+        <v>45352</v>
+      </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
@@ -6405,7 +6513,9 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="40">
+        <v>45383</v>
+      </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -6421,7 +6531,9 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="40">
+        <v>45413</v>
+      </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
@@ -6437,7 +6549,9 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="40">
+        <v>45444</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
@@ -6453,7 +6567,9 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="40">
+        <v>45474</v>
+      </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
@@ -6469,7 +6585,9 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="40">
+        <v>45505</v>
+      </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
@@ -6485,7 +6603,9 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="40">
+        <v>45536</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -8005,20 +8125,36 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
